--- a/PREJUEGO/1.ELICITACION/1.6 Trabajo atrasado/G4_Backlog2_V2.xlsx
+++ b/PREJUEGO/1.ELICITACION/1.6 Trabajo atrasado/G4_Backlog2_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="4740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -326,10 +326,10 @@
     <t>Revisión de datos validados según informacion del empleado</t>
   </si>
   <si>
-    <t>Modificacion de datos del personal(correo electrónico, rol, sueldo, etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear un formulario para el ingreso de los datos solicitados (Nombres, direccion, etc) </t>
+    <t xml:space="preserve">Crear un formulario para el ingreso de los datos solicitados (Nombres, direccion, cedula, numero) </t>
+  </si>
+  <si>
+    <t>Modificacion de datos del personal(correo electrónico, rol, sueldo)</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
@@ -2516,8 +2516,8 @@
   </sheetPr>
   <dimension ref="B1:I1006"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2697,7 +2697,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -2913,7 +2913,7 @@
         <v>78</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
